--- a/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>15,74%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,7</t>
+          <t>18,21; 26,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,95</t>
+          <t>23,67; 33,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,9; 20,32</t>
+          <t>10,25; 17,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,71</t>
+          <t>12,01; 21,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 17,13</t>
+          <t>14,17; 22,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 15,42</t>
+          <t>22,12; 31,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,09</t>
+          <t>13,89; 21,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 17,91</t>
+          <t>11,12; 20,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,65</t>
+          <t>17,17; 23,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,01; 20,22</t>
+          <t>24,52; 31,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,92</t>
+          <t>12,91; 18,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 16,52</t>
+          <t>12,72; 19,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>13,74%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,21; 26,93</t>
+          <t>12,86; 19,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,67; 33,35</t>
+          <t>18,99; 26,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 17,39</t>
+          <t>12,9; 20,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,39</t>
+          <t>10,52; 16,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,68</t>
+          <t>10,41; 17,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,12; 31,91</t>
+          <t>8,98; 15,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 21,95</t>
+          <t>9,42; 16,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,01</t>
+          <t>10,91; 17,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,17; 23,55</t>
+          <t>12,6; 17,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,31</t>
+          <t>15,01; 20,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,33</t>
+          <t>11,91; 16,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,72; 19,1</t>
+          <t>11,74; 16,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>23,26%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,58; 32,7</t>
+          <t>21,74; 34,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,26; 37,29</t>
+          <t>22,48; 34,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 26,09</t>
+          <t>14,19; 25,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 25,23</t>
+          <t>12,66; 29,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,71; 32,56</t>
+          <t>24,26; 39,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,32; 38,39</t>
+          <t>28,18; 41,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,4; 29,57</t>
+          <t>16,8; 28,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 23,75</t>
+          <t>17,88; 34,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 31,42</t>
+          <t>24,73; 34,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,45</t>
+          <t>27,21; 35,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 26,0</t>
+          <t>17,02; 25,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 21,99</t>
+          <t>17,77; 29,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 26,93</t>
+          <t>22,98; 31,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 33,35</t>
+          <t>30,96; 40,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 17,39</t>
+          <t>12,93; 20,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,39</t>
+          <t>11,95; 21,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,68</t>
+          <t>16,55; 24,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 31,91</t>
+          <t>27,26; 36,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,89; 21,95</t>
+          <t>17,35; 26,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,01</t>
+          <t>9,57; 18,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 23,55</t>
+          <t>20,76; 26,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,31</t>
+          <t>30,09; 37,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,33</t>
+          <t>15,76; 21,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,72; 19,1</t>
+          <t>12,06; 18,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,7</t>
+          <t>10,07; 19,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,95</t>
+          <t>12,32; 22,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 20,32</t>
+          <t>12,49; 21,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,71</t>
+          <t>11,56; 20,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 17,13</t>
+          <t>11,84; 21,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 15,42</t>
+          <t>10,21; 19,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,09</t>
+          <t>12,21; 20,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,91; 17,91</t>
+          <t>10,0; 19,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,65</t>
+          <t>12,25; 19,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,01; 20,22</t>
+          <t>12,53; 19,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,92</t>
+          <t>13,51; 19,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 16,52</t>
+          <t>12,09; 18,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>15,01%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>13,18%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 24,51</t>
+          <t>12,5; 20,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,01; 30,71</t>
+          <t>19,03; 29,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 19,13</t>
+          <t>11,51; 20,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 17,67</t>
+          <t>8,75; 16,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,06; 21,9</t>
+          <t>9,96; 17,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,26; 26,24</t>
+          <t>7,57; 15,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,9</t>
+          <t>8,05; 15,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,83; 17,68</t>
+          <t>10,71; 18,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 22,33</t>
+          <t>12,32; 18,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,92; 27,66</t>
+          <t>14,44; 20,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 18,82</t>
+          <t>10,48; 16,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 16,92</t>
+          <t>10,54; 16,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21,73%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 24,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24,8; 30,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 19,04</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 17,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 21,91</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21,19; 26,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,5; 19,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 17,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18,91; 22,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23,85; 27,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 18,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,35; 16,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,74; 34,31</t>
+          <t>20,5; 34,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,48; 34,36</t>
+          <t>21,35; 34,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,19; 25,53</t>
+          <t>14,29; 25,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 29,47</t>
+          <t>13,54; 29,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,26; 39,56</t>
+          <t>24,5; 38,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,18; 41,06</t>
+          <t>28,21; 40,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,8; 28,01</t>
+          <t>16,67; 27,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 34,9</t>
+          <t>18,02; 35,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 34,2</t>
+          <t>24,78; 34,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,21; 35,95</t>
+          <t>26,85; 35,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 25,19</t>
+          <t>16,64; 24,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 29,58</t>
+          <t>17,35; 29,33</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,98; 31,46</t>
+          <t>22,79; 31,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,96; 40,58</t>
+          <t>30,95; 41,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,4</t>
+          <t>13,1; 20,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 21,32</t>
+          <t>12,25; 21,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 24,35</t>
+          <t>16,73; 24,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 36,73</t>
+          <t>27,16; 37,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 26,25</t>
+          <t>17,46; 26,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 18,3</t>
+          <t>9,42; 18,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,76; 26,75</t>
+          <t>20,8; 26,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,09; 37,56</t>
+          <t>30,44; 37,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 21,78</t>
+          <t>15,88; 21,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,41</t>
+          <t>12,07; 18,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,07; 19,84</t>
+          <t>10,48; 20,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 22,84</t>
+          <t>13,05; 23,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 21,08</t>
+          <t>12,52; 21,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 20,88</t>
+          <t>11,33; 21,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 21,87</t>
+          <t>11,45; 22,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,35</t>
+          <t>9,91; 19,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 20,7</t>
+          <t>12,25; 21,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 19,25</t>
+          <t>10,16; 19,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,24</t>
+          <t>11,96; 19,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 19,74</t>
+          <t>12,88; 19,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 19,81</t>
+          <t>13,41; 19,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 18,71</t>
+          <t>12,06; 18,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 20,9</t>
+          <t>13,0; 20,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 29,0</t>
+          <t>19,29; 28,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 20,93</t>
+          <t>11,85; 20,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 16,17</t>
+          <t>9,14; 16,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 17,82</t>
+          <t>9,64; 17,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 15,31</t>
+          <t>7,33; 15,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,93</t>
+          <t>7,9; 15,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 18,39</t>
+          <t>10,47; 18,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 18,04</t>
+          <t>12,35; 18,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,99</t>
+          <t>14,68; 21,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 16,89</t>
+          <t>10,78; 16,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,14</t>
+          <t>10,64; 16,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,43; 24,01</t>
+          <t>19,07; 24,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 30,38</t>
+          <t>24,86; 30,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,04</t>
+          <t>14,48; 19,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,01; 17,87</t>
+          <t>13,0; 17,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 21,91</t>
+          <t>16,93; 21,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,39</t>
+          <t>21,15; 26,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,5; 19,74</t>
+          <t>15,4; 20,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,52</t>
+          <t>12,69; 17,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,91; 22,2</t>
+          <t>18,94; 22,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 27,8</t>
+          <t>23,78; 27,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,67</t>
+          <t>15,71; 18,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,35; 16,88</t>
+          <t>13,46; 16,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>31,22%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34,76%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26,23%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>27,5%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>27,76%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>19,34%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,81%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>31,22%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>34,76%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>21,77%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>23,81%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,5; 34,33</t>
+          <t>24,66; 39,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,35; 34,88</t>
+          <t>29,17; 41,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 25,63</t>
+          <t>16,77; 28,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 29,95</t>
+          <t>18,98; 35,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,5; 38,82</t>
+          <t>21,5; 33,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 40,92</t>
+          <t>22,19; 34,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,77</t>
+          <t>13,78; 26,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,02; 35,79</t>
+          <t>13,87; 30,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,78; 34,32</t>
+          <t>24,98; 34,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,85; 35,91</t>
+          <t>26,55; 36,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 24,86</t>
+          <t>16,54; 24,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 29,33</t>
+          <t>18,26; 30,54</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31,96%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21,5%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>27,17%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>35,9%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>16,36%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,54%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,25%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>31,96%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,5%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,79; 31,57</t>
+          <t>16,28; 24,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,95; 41,02</t>
+          <t>26,71; 36,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,1; 20,49</t>
+          <t>17,37; 26,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,81</t>
+          <t>9,86; 20,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 24,65</t>
+          <t>23,3; 31,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,16; 37,51</t>
+          <t>31,09; 40,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 26,28</t>
+          <t>12,87; 20,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 18,76</t>
+          <t>12,59; 22,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,93</t>
+          <t>20,74; 26,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,44; 37,86</t>
+          <t>30,55; 37,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 21,6</t>
+          <t>15,98; 21,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,07; 18,89</t>
+          <t>12,51; 19,62</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14,41%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>14,71%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>17,39%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>16,42%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,81%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,55%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14,41%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>16,2%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 20,0</t>
+          <t>11,79; 22,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 23,43</t>
+          <t>10,12; 19,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 21,42</t>
+          <t>12,17; 20,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 21,3</t>
+          <t>10,39; 19,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 22,18</t>
+          <t>10,54; 20,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,59</t>
+          <t>12,57; 22,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,27</t>
+          <t>11,91; 21,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 19,14</t>
+          <t>11,68; 21,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 19,57</t>
+          <t>12,16; 19,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 19,33</t>
+          <t>12,65; 19,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,62</t>
+          <t>13,18; 19,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,24</t>
+          <t>12,41; 19,25</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>16,45%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>23,91%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>15,78%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>11,28%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,93</t>
+          <t>9,8; 17,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,29; 28,96</t>
+          <t>7,28; 15,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 20,68</t>
+          <t>7,92; 15,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,37</t>
+          <t>9,74; 20,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,76</t>
+          <t>12,63; 21,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 15,55</t>
+          <t>18,85; 29,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 15,62</t>
+          <t>11,6; 20,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 18,79</t>
+          <t>8,69; 16,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 18,28</t>
+          <t>12,27; 18,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,34</t>
+          <t>14,31; 20,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,8</t>
+          <t>10,93; 16,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 16,25</t>
+          <t>10,79; 17,41</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>21,73%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>27,56%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>16,74%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,01%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,33%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>17,62%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,07; 24,1</t>
+          <t>17,06; 21,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,86; 30,43</t>
+          <t>21,26; 26,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 19,06</t>
+          <t>15,45; 19,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,96</t>
+          <t>12,9; 18,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,66</t>
+          <t>19,2; 24,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,15; 26,62</t>
+          <t>25,01; 30,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,4; 20,18</t>
+          <t>14,51; 19,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,69; 17,43</t>
+          <t>13,18; 18,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,94; 22,29</t>
+          <t>18,8; 22,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,78; 27,67</t>
+          <t>23,92; 27,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,87</t>
+          <t>15,63; 18,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,46; 16,74</t>
+          <t>13,51; 17,56</t>
         </is>
       </c>
     </row>
